--- a/data/trans_dic/P5B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Provincia-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,27</t>
+          <t>0,75; 5,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,65</t>
+          <t>3,02; 8,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,24</t>
+          <t>0,38; 3,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,92</t>
+          <t>2,67; 7,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,7</t>
+          <t>0,88; 3,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,35</t>
+          <t>3,48; 7,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,98</t>
+          <t>2,24; 5,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,45</t>
+          <t>3,06; 7,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,43</t>
+          <t>1,44; 4,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,31</t>
+          <t>0,26; 2,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,7</t>
+          <t>3,91; 7,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,11</t>
+          <t>2,6; 6,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,97</t>
+          <t>3,25; 7,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,65</t>
+          <t>0,28; 1,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,16</t>
+          <t>3,39; 6,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,93</t>
+          <t>3,23; 6,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,28</t>
+          <t>2,72; 5,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,48</t>
+          <t>0,37; 1,5</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,11</t>
+          <t>2,07; 6,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,16</t>
+          <t>2,06; 7,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,69</t>
+          <t>4,06; 9,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,46</t>
+          <t>1,79; 5,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,87</t>
+          <t>3,61; 7,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,74</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,57</t>
+          <t>0,14; 1,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,05</t>
+          <t>2,39; 5,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,99</t>
+          <t>1,46; 5,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,29</t>
+          <t>1,0; 3,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,63</t>
+          <t>0,44; 2,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,59</t>
+          <t>1,52; 6,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,75</t>
+          <t>1,43; 4,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,02</t>
+          <t>1,53; 3,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,6</t>
+          <t>1,52; 5,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,85</t>
+          <t>1,47; 3,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,17</t>
+          <t>1,73; 4,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,06</t>
+          <t>1,46; 3,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,59</t>
+          <t>1,33; 3,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,9</t>
+          <t>1,76; 4,03</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 11,83</t>
+          <t>4,58; 12,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,11</t>
+          <t>0,89; 5,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,47 +1299,47 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 14,2</t>
+          <t>6,35; 14,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,91</t>
+          <t>1,24; 6,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,87</t>
+          <t>0,4; 3,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 11,7</t>
+          <t>6,26; 11,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,62</t>
+          <t>1,33; 4,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,97</t>
+          <t>0,21; 1,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,9</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
     </row>
@@ -1424,32 +1424,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,97</t>
+          <t>0,32; 3,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,75</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,25</t>
+          <t>0,76; 4,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,4</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,36</t>
+          <t>0,33; 2,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,89</t>
+          <t>0,69; 2,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,96</t>
+          <t>0,4; 2,05</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,46</t>
+          <t>1,15; 3,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,61</t>
+          <t>0,28; 1,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,5</t>
+          <t>0,46; 2,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,78</t>
+          <t>0,21; 1,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,65</t>
+          <t>4,74; 8,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,02</t>
+          <t>0,15; 2,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,91</t>
+          <t>0,9; 2,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,9</t>
+          <t>0,92; 3,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,56</t>
+          <t>3,26; 5,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,45</t>
+          <t>0,41; 1,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,34</t>
+          <t>0,87; 2,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,07</t>
+          <t>0,8; 2,02</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,14</t>
+          <t>1,63; 4,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,22</t>
+          <t>0,39; 2,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,22</t>
+          <t>0,15; 1,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,19</t>
+          <t>2,54; 5,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,46</t>
+          <t>0,25; 1,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,73</t>
+          <t>0,38; 1,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,42</t>
+          <t>0,3; 1,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,15</t>
+          <t>2,35; 4,12</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,53</t>
+          <t>0,45; 1,45</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,01</t>
+          <t>0,21; 0,99</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,07</t>
+          <t>0,31; 1,04</t>
         </is>
       </c>
     </row>
@@ -1844,52 +1844,52 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,64</t>
+          <t>2,38; 3,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,12</t>
+          <t>1,27; 2,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,81</t>
+          <t>1,01; 1,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,61</t>
+          <t>0,8; 1,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,0; 5,43</t>
+          <t>3,97; 5,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,11</t>
+          <t>1,23; 2,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,68</t>
+          <t>1,65; 2,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,66</t>
+          <t>1,0; 1,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,35</t>
+          <t>3,36; 4,34</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,03</t>
+          <t>1,36; 2,0</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,48</t>
+          <t>1,01; 1,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,49</t>
+          <t>0,71; 5,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,71</t>
+          <t>3,11; 8,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,24</t>
+          <t>0,39; 3,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,89</t>
+          <t>2,79; 7,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,56</t>
+          <t>0,73; 3,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,53</t>
+          <t>3,33; 7,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,83</t>
+          <t>2,09; 5,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,26</t>
+          <t>3,11; 7,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,66</t>
+          <t>1,45; 4,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,88</t>
+          <t>3,69; 7,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,24</t>
+          <t>2,46; 6,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,16</t>
+          <t>3,21; 6,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,01</t>
+          <t>3,35; 6,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,05</t>
+          <t>3,2; 6,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,06</t>
+          <t>2,6; 5,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,21</t>
+          <t>2,12; 6,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,89</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,76</t>
+          <t>4,18; 9,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,1</t>
+          <t>3,56; 7,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,72</t>
+          <t>0,14; 1,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,1</t>
+          <t>1,36; 4,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,26</t>
+          <t>0,98; 3,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,54</t>
+          <t>0,47; 2,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,54</t>
+          <t>1,46; 4,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,99</t>
+          <t>1,63; 4,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,64</t>
+          <t>1,6; 6,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,2</t>
+          <t>1,78; 4,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,05</t>
+          <t>1,54; 3,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,57</t>
+          <t>1,23; 3,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 12,24</t>
+          <t>4,48; 11,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,81</t>
+          <t>0,89; 5,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 14,21</t>
+          <t>6,04; 13,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,19</t>
+          <t>1,16; 5,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,61</t>
+          <t>0,4; 3,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 11,89</t>
+          <t>6,1; 11,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,5</t>
+          <t>1,34; 4,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,92</t>
+          <t>0,2; 1,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,05</t>
+          <t>0,32; 2,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,44</t>
+          <t>0,71; 4,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,88</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,78</t>
+          <t>0,71; 2,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,09</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,39</t>
+          <t>1,13; 3,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,46</t>
+          <t>0,27; 1,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,51</t>
+          <t>0,49; 2,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,71</t>
+          <t>4,65; 8,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,05</t>
+          <t>0,26; 2,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,86</t>
+          <t>0,89; 2,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,57</t>
+          <t>3,32; 5,55</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,45</t>
+          <t>0,36; 1,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,25</t>
+          <t>0,93; 2,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,08</t>
+          <t>1,66; 4,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,1</t>
+          <t>2,45; 5,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,35</t>
+          <t>0,25; 1,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,77</t>
+          <t>0,29; 1,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,12</t>
+          <t>2,27; 4,05</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,45</t>
+          <t>0,5; 1,39</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,99</t>
+          <t>0,24; 0,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 3,61</t>
+          <t>2,41; 3,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,21</t>
+          <t>1,24; 2,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,86</t>
+          <t>0,97; 1,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,39</t>
+          <t>3,97; 5,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,1</t>
+          <t>1,21; 2,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,65</t>
+          <t>1,69; 2,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,34</t>
+          <t>3,38; 4,32</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,0</t>
+          <t>1,34; 1,99</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,13</t>
+          <t>1,47; 2,14</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P5B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,45</t>
+          <t>0,89; 5,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,63</t>
+          <t>3,09; 8,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,26</t>
+          <t>0,39; 3,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,94</t>
+          <t>2,66; 7,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,39</t>
+          <t>0,87; 3,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,37</t>
+          <t>3,54; 7,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,73</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,94</t>
+          <t>2,24; 5,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,49</t>
+          <t>3,17; 7,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,62</t>
+          <t>1,43; 4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,2</t>
+          <t>0,26; 2,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,82</t>
+          <t>3,79; 7,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,0</t>
+          <t>2,41; 6,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,97</t>
+          <t>3,18; 6,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,53</t>
+          <t>0,26; 1,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,19</t>
+          <t>3,4; 6,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,02</t>
+          <t>3,29; 5,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,08</t>
+          <t>2,6; 5,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,5</t>
+          <t>0,32; 1,48</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,19</t>
+          <t>2,07; 6,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 7,03</t>
+          <t>2,11; 7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,76</t>
+          <t>4,1; 9,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,54</t>
+          <t>1,66; 5,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 7,14</t>
+          <t>3,6; 6,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,63</t>
+          <t>0,14; 1,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,37</t>
+          <t>2,2; 5,05</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,89</t>
+          <t>1,34; 4,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,25</t>
+          <t>1,0; 3,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,75</t>
+          <t>0,47; 2,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,1</t>
+          <t>1,51; 5,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,99</t>
+          <t>1,44; 4,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,04</t>
+          <t>1,54; 4,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,08</t>
+          <t>1,55; 5,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,81</t>
+          <t>1,42; 3,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,17</t>
+          <t>1,74; 4,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,18</t>
+          <t>1,44; 3,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,59</t>
+          <t>1,25; 3,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,03</t>
+          <t>1,74; 3,9</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,93</t>
+          <t>4,45; 11,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,22</t>
+          <t>0,89; 5,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,47 +1299,47 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,76</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 13,95</t>
+          <t>6,34; 14,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,87</t>
+          <t>0,91; 5,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,85</t>
+          <t>0,4; 3,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,61</t>
+          <t>6,18; 11,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,62</t>
+          <t>1,43; 4,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,83</t>
+          <t>0,21; 1,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
     </row>
@@ -1424,47 +1424,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,98</t>
+          <t>0,32; 2,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,76</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,33</t>
+          <t>0,71; 4,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,38</t>
+          <t>0,31; 2,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,85</t>
+          <t>0,72; 2,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,05</t>
+          <t>0,35; 1,96</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,44</t>
+          <t>1,13; 3,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,57</t>
+          <t>0,28; 1,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,63</t>
+          <t>0,49; 2,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,83</t>
+          <t>0,23; 1,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,75</t>
+          <t>4,64; 8,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,14</t>
+          <t>0,27; 2,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,95</t>
+          <t>0,91; 2,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,05</t>
+          <t>0,99; 2,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,55</t>
+          <t>3,19; 5,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,53</t>
+          <t>0,36; 1,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,28</t>
+          <t>0,91; 2,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,02</t>
+          <t>0,82; 2,07</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,1</t>
+          <t>1,52; 4,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,19</t>
+          <t>0,4; 2,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,74</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,28</t>
+          <t>0,15; 1,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,15</t>
+          <t>2,55; 5,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,42</t>
+          <t>0,25; 1,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,82</t>
+          <t>0,29; 1,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,34</t>
+          <t>0,29; 1,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,05</t>
+          <t>2,35; 4,15</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,39</t>
+          <t>0,45; 1,53</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,96</t>
+          <t>0,26; 1,01</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,04</t>
+          <t>0,32; 1,07</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,67</t>
+          <t>2,42; 3,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,18</t>
+          <t>1,23; 2,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,81</t>
+          <t>0,98; 1,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,62</t>
+          <t>0,83; 1,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,46</t>
+          <t>4,0; 5,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,1</t>
+          <t>1,22; 2,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,74</t>
+          <t>1,67; 2,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,71</t>
+          <t>0,98; 1,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,32</t>
+          <t>3,38; 4,35</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,34; 1,99</t>
+          <t>1,35; 2,03</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,14</t>
+          <t>1,45; 2,13</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,53</t>
+          <t>0,97; 1,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 5,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 6,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 4,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,0; 0,75</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,31</t>
+          <t>0,25; 2,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,48</t>
+          <t>0,33; 1,48</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,16</t>
+          <t>2,13; 7,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,46</t>
+          <t>1,65; 5,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,05</t>
+          <t>2,21; 5,15</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,29</t>
+          <t>0,53; 2,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,59</t>
+          <t>1,53; 5,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,02</t>
+          <t>0,81; 3,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,85</t>
+          <t>0,97; 3,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,06</t>
+          <t>0,97; 2,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,9</t>
+          <t>1,47; 3,56</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,9</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>0,0; 3,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,36</t>
+          <t>0,31; 2,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,96</t>
+          <t>0,36; 2,0</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,78</t>
+          <t>0,23; 1,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,9</t>
+          <t>0,64; 2,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,07</t>
+          <t>0,68; 1,87</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,53%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,22</t>
+          <t>0,08; 0,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,42</t>
+          <t>0,3; 1,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,07</t>
+          <t>0,25; 0,93</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,61</t>
+          <t>0,75; 1,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,66</t>
+          <t>0,9; 1,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,48</t>
+          <t>0,91; 1,44</t>
         </is>
       </c>
     </row>
